--- a/measures/3 translation and stimuli selection/2 sites/Balas & Sarzynska/translation/Polish/instructions_surveillance.xlsx
+++ b/measures/3 translation and stimuli selection/2 sites/Balas & Sarzynska/translation/Polish/instructions_surveillance.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmoranyo\Documents\LipLab\projects\RRR_fazio&amp;olson2001\replication_procedure\labs\BALAS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -63,45 +68,45 @@
     <t>instructions_text_bottom</t>
   </si>
   <si>
-    <t>Dla tego zadania, docelową postacią jest Crandios:</t>
-  </si>
-  <si>
-    <t>Więc gdy tylko Crandios (jego imię lub jego podobizna) pojawi się na ekranie, naciśnij spację tak szybko jak to możliwe. Uderz w spację gdy tylko zobaczysz podobiznę Crandiosa lub słowo CRANDIOS.
+    <t>Dla tego zadania, docelową postacią jest Jangmo:</t>
+  </si>
+  <si>
+    <t>Więc gdy tylko Jangmo (jego imię lub jego podobizna) pojawi się na ekranie, naciśnij spację tak szybko jak to możliwe. Uderz w spację gdy tylko zobaczysz podobiznę Jangmoa lub słowo JANGMO.
 Naciśnij spację by rozpocząć zadanie</t>
   </si>
   <si>
-    <t>Dla tego zadania, docelową postacią jest Shelmet:</t>
-  </si>
-  <si>
-    <t>Więc gdy tylko Shelmet (jego imię lub jego podobizna) pojawi się na ekranie, naciśnij spację tak szybko jak to możliwe. Uderz w spację gdy tylko zobaczysz podobiznę Shelmeta lub słowo SHELMET.
+    <t>Dla tego zadania, docelową postacią jest Grubbin:</t>
+  </si>
+  <si>
+    <t>Więc gdy tylko Grubbin (jego imię lub jego podobizna) pojawi się na ekranie, naciśnij spację tak szybko jak to możliwe. Uderz w spację gdy tylko zobaczysz podobiznę Grubbina lub słowo GRUBBIN. 
 Naciśnij spację by rozpocząć zadanie</t>
   </si>
   <si>
-    <t>Dla tego zadania, docelową postacią jest Grubbin:</t>
-  </si>
-  <si>
-    <t>Więc gdy tylko Grubbin (jego imię lub jego podobizna) pojawi się na ekranie, naciśnij spację tak szybko jak to możliwe. Uderz w spację gdy tylko zobaczysz podobiznę Grubbina lub słowo GRUBBIN.
+    <t>Dla tego zadania, docelową postacią jest Bergmite:</t>
+  </si>
+  <si>
+    <t>Więc gdy tylko Bergmite (jego imię lub jego podobizna) pojawi się na ekranie, naciśnij spację tak szybko jak to możliwe. Uderz w spację gdy tylko zobaczysz podobiznę Bergmitea lub słowo BERGMITE.
 Naciśnij spację by rozpocząć zadanie</t>
   </si>
   <si>
-    <t>Dla tego zadania, docelową postacią jest Magearna:</t>
-  </si>
-  <si>
-    <t>Więc gdy tylko Magearna (jego imię lub jego podobizna) pojawi się na ekranie, naciśnij spację tak szybko jak to możliwe. Uderz w spację gdy tylko zobaczysz podobiznę Magearny lub słowo MAGEARNA
+    <t>Dla tego zadania, docelową postacią jest Zorua:</t>
+  </si>
+  <si>
+    <t>Więc gdy tylko Zorua (jego imię lub jego podobizna) pojawi się na ekranie, naciśnij spację tak szybko jak to możliwe. Uderz w spację gdy tylko zobaczysz podobiznę Zoruay lub słowo ZORUA
 Naciśnij spację by rozpocząć zadanie</t>
   </si>
   <si>
-    <t>Dla tego zadania, docelową postacią jest Golett:</t>
-  </si>
-  <si>
-    <t>Więc gdy tylko Golett (jego imię lub jego podobizna) pojawi się na ekranie, naciśnij spację tak szybko jak to możliwe. Uderz w spację gdy tylko zobaczysz podobiznę Goletta lub słowo GOLETT.
+    <t>Dla tego zadania, docelową postacią jest Scatterbug:</t>
+  </si>
+  <si>
+    <t>Więc gdy tylko Scatterbug (jego imię lub jego podobizna) pojawi się na ekranie, naciśnij spację tak szybko jak to możliwe. Uderz w spację gdy tylko zobaczysz podobiznę Scatterbuga lub słowo SCATTERBUG.
 Naciśnij spację by rozpocząć zadanie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -956,7 +961,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -966,18 +971,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.625" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -991,7 +996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="105">
+    <row r="2" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1005,7 +1010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="105">
+    <row r="3" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -1019,7 +1024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="105">
+    <row r="4" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1033,7 +1038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="120">
+    <row r="5" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="105">
+    <row r="6" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1061,13 +1066,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
